--- a/assets/CellScores/cellscores.xlsx
+++ b/assets/CellScores/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\CellScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82a9e0b2ef7d490c/Documents/GitHub/scGEAToolbox_dev/assets/CellScores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A5894A-51C6-4EC4-9429-8A68AF59B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{30A5894A-51C6-4EC4-9429-8A68AF59B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67D8378-3C10-4794-B2B1-A9504DCDDC33}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="266">
   <si>
     <t>ScoreType</t>
   </si>
@@ -811,6 +811,18 @@
   </si>
   <si>
     <t>MANAscore 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCB4, LEFTY1, IGKC, TGFBI, ASCL2, AREG, RPS7, CXCL14, PRDX5, RPS3, RPS4X, PERP, COMMD6, EREG, MTDH, RNF43, DNAJC15, TESC, HM13, APIP, RPS4Y1, LAPTM4B, RPS14, PRDX4, RPN2, RPS15A, RPL15, FCGRT, PLPP2, TOMM20, CUTA, RPL23, CDCA7, RPS23, PPP1R14B, SPCS1, SLC12A2, CEACAM5, RCN1, FAM96B, EPCAM, EBPL, RPL10, RACK1, CPNE1, RPL13, TMEM59, COX4I1, TPT1, PEBP1, </t>
+  </si>
+  <si>
+    <t>Colorectal Cancer Cell Stemness</t>
+  </si>
+  <si>
+    <t>PMID:38156967</t>
+  </si>
+  <si>
+    <t>CCC Stemness</t>
   </si>
 </sst>
 </file>
@@ -888,15 +900,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1179,84 +1188,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A97" sqref="A1:E111"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>183</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2631,6 +2639,20 @@
       </c>
       <c r="E111" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/assets/CellScores/cellscores.xlsx
+++ b/assets/CellScores/cellscores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82a9e0b2ef7d490c/Documents/GitHub/scGEAToolbox_dev/assets/CellScores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{30A5894A-51C6-4EC4-9429-8A68AF59B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67D8378-3C10-4794-B2B1-A9504DCDDC33}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{30A5894A-51C6-4EC4-9429-8A68AF59B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27FC8EC1-3E48-4847-B7E1-E1F0310305E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,9 +756,6 @@
     <t>SHH, PTCH1, PTCH2, SMO, GLI1, GLI2, GLI3, SUFU, HHIP</t>
   </si>
   <si>
-    <t>WNT1, WNT2, WNT3A, WNT5A, WNT7B, FZD1, FZD2, FZD3, FZD4, FZD5, FZD6, FZD7, FZD8, FZD9, FZD10, LRP5, LRP6, CTNNB1, GSK3B, APC, AXIN1, AXIN2, DKK1, SFRP1, SFRP2</t>
-  </si>
-  <si>
     <t>ALDH1A1, ALDH1A2, ALDH1A3, RDH10, RBP4, RARA, RARB, RARG, CYP26A1, CYP26B1, CYP26C1</t>
   </si>
   <si>
@@ -813,9 +810,6 @@
     <t>MANAscore 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">PLCB4, LEFTY1, IGKC, TGFBI, ASCL2, AREG, RPS7, CXCL14, PRDX5, RPS3, RPS4X, PERP, COMMD6, EREG, MTDH, RNF43, DNAJC15, TESC, HM13, APIP, RPS4Y1, LAPTM4B, RPS14, PRDX4, RPN2, RPS15A, RPL15, FCGRT, PLPP2, TOMM20, CUTA, RPL23, CDCA7, RPS23, PPP1R14B, SPCS1, SLC12A2, CEACAM5, RCN1, FAM96B, EPCAM, EBPL, RPL10, RACK1, CPNE1, RPL13, TMEM59, COX4I1, TPT1, PEBP1, </t>
-  </si>
-  <si>
     <t>Colorectal Cancer Cell Stemness</t>
   </si>
   <si>
@@ -823,6 +817,12 @@
   </si>
   <si>
     <t>CCC Stemness</t>
+  </si>
+  <si>
+    <t>PLCB4, LEFTY1, IGKC, TGFBI, ASCL2, AREG, RPS7, CXCL14, PRDX5, RPS3, RPS4X, PERP, COMMD6, EREG, MTDH, RNF43, DNAJC15, TESC, HM13, APIP, RPS4Y1, LAPTM4B, RPS14, PRDX4, RPN2, RPS15A, RPL15, FCGRT, PLPP2, TOMM20, CUTA, RPL23, CDCA7, RPS23, PPP1R14B, SPCS1, SLC12A2, CEACAM5, RCN1, FAM96B, EPCAM, EBPL, RPL10, RACK1, CPNE1, RPL13, TMEM59, COX4I1, TPT1, PEBP1</t>
+  </si>
+  <si>
+    <t>WNT1, WNT2, WNT3A, WNT5A, WNT7B, FZD1, FZD2, FZD3, FZD4, FZD5, FZD6, FZD7, FZD8, FZD9, FZD10, LRP5, LRP6, CTNNB1, GSK3B, APC, AXIN1, AXIN2, DKK1, SFRP1 SFRP2</t>
   </si>
 </sst>
 </file>
@@ -923,6 +923,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1191,19 +1195,19 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.1796875" customWidth="1"/>
+    <col min="2" max="2" width="57.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -2032,7 +2036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>215</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>206</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>226</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -2474,13 +2478,13 @@
         <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -2488,13 +2492,13 @@
         <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>233</v>
       </c>
@@ -2502,13 +2506,13 @@
         <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -2516,13 +2520,13 @@
         <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -2530,13 +2534,13 @@
         <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -2547,112 +2551,112 @@
         <v>241</v>
       </c>
       <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" t="s">
         <v>251</v>
       </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>253</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>254</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E105" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="E107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>256</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>257</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E108" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="E109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>258</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E109" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>259</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E110" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>260</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="E111" t="s">
         <v>249</v>
       </c>
-      <c r="E111" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
+        <v>262</v>
+      </c>
+      <c r="E112" t="s">
         <v>263</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D112" t="s">
-        <v>264</v>
-      </c>
-      <c r="E112" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
